--- a/de56/profit_plan.xlsx
+++ b/de56/profit_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\あつき\mygit\xbp\de56\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8019C862-0857-4085-8D4A-73543AA02289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49C41AE-E086-4A79-8CA0-9253A557FF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CACCE200-A013-5F4E-BF76-B2DE9FB30CA5}"/>
   </bookViews>
@@ -409,40 +409,40 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,7 +782,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -795,36 +795,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9">
-        <v>1920000</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="16">
+        <f>2000*3*365*10</f>
+        <v>21900000</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
@@ -834,14 +835,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="15">
+      <c r="E4" s="7">
         <f>D4+D5+D6+D7+D8</f>
         <v>936000</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="15"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="13"/>
@@ -851,11 +852,11 @@
       <c r="D5" s="5">
         <v>360000</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="16"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="13"/>
@@ -863,11 +864,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="16"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="16"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="13"/>
@@ -875,11 +876,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="16"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="14"/>
@@ -889,26 +890,26 @@
       <c r="D8" s="5">
         <v>576000</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="17"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="9">
+      <c r="D9" s="16">
         <f>D3-E4</f>
-        <v>984000</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
+        <v>20964000</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="12" t="s">
@@ -918,17 +919,17 @@
         <v>12</v>
       </c>
       <c r="D10" s="5">
-        <f>300000*3</f>
-        <v>900000</v>
-      </c>
-      <c r="E10" s="15">
+        <f>500000*3*12</f>
+        <v>18000000</v>
+      </c>
+      <c r="E10" s="7">
         <f>D10+D11+D12+D13+D14</f>
-        <v>2916440</v>
+        <v>20016440</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="15"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="13"/>
@@ -938,11 +939,11 @@
       <c r="D11" s="5">
         <v>1800000</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="16"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="13"/>
@@ -952,11 +953,11 @@
       <c r="D12" s="6">
         <v>63000</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="16"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="16"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="13"/>
@@ -967,11 +968,11 @@
         <f>700000/5</f>
         <v>140000</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
+      <c r="G13" s="8"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="16"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="14"/>
@@ -981,11 +982,11 @@
       <c r="D14" s="5">
         <v>13440</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="17"/>
+      <c r="I14" s="9"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
@@ -994,11 +995,11 @@
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="16">
         <f>D9-E10</f>
-        <v>-1932440</v>
-      </c>
-      <c r="E15" s="10"/>
+        <v>947560</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1012,11 +1013,11 @@
         <v>18</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="15"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="14"/>
@@ -1024,11 +1025,11 @@
         <v>19</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="17"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
@@ -1037,11 +1038,11 @@
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="16">
         <f>D15-E16</f>
-        <v>-1932440</v>
-      </c>
-      <c r="E18" s="10"/>
+        <v>947560</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1049,6 +1050,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="I4:I8"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B10:B14"/>
@@ -1065,15 +1075,6 @@
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="G16:G17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/de56/profit_plan.xlsx
+++ b/de56/profit_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>項目</t>
   </si>
@@ -31,9 +31,6 @@
     <t>売上高</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>売上原価</t>
   </si>
   <si>
@@ -64,13 +61,28 @@
     <t>賞与</t>
   </si>
   <si>
+    <t>水道光熱費</t>
+  </si>
+  <si>
+    <t>旅費交通費</t>
+  </si>
+  <si>
     <t>法定福利費</t>
   </si>
   <si>
+    <t>通信費</t>
+  </si>
+  <si>
+    <t>業務委託費</t>
+  </si>
+  <si>
     <t>減価償却費</t>
   </si>
   <si>
     <t>広告宣伝費</t>
+  </si>
+  <si>
+    <t>支払手数料</t>
   </si>
   <si>
     <t>営業利益</t>
@@ -109,8 +121,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -122,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -244,11 +256,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -271,10 +305,10 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -304,16 +338,31 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -627,21 +676,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="23" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="24" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="24" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="25" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="25" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="24" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="28" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="29" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="29" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="30" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -650,12 +699,12 @@
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -665,263 +714,438 @@
         <v>1</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
+      <c r="I2" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="6">
-        <f>2000*3*365*10</f>
+        <f>2000*4000+100*4*12</f>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
-        <v>5</v>
+      <c r="F3" s="6">
+        <f>2000*4000+100*4*12</f>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6">
+        <f>2000*4000+100*4*12</f>
+      </c>
       <c r="I3" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
       <c r="E4" s="13">
         <f>D4+D5+D6+D7+D8</f>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <f>SUM(F4:F8)</f>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <f>SUM(H4:H8)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="14"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="12">
-        <v>360000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
       <c r="I5" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1"/>
       <c r="B6" s="14"/>
       <c r="C6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
       <c r="I6" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1"/>
       <c r="B7" s="14"/>
       <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
       <c r="I7" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="17"/>
       <c r="C8" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="12">
-        <v>576000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
       <c r="I8" s="18"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1"/>
       <c r="B9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="6">
         <f>D3-E4</f>
       </c>
       <c r="E9" s="7"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6">
+        <f>F3-G4</f>
+      </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6">
+        <f>H3-I4</f>
+      </c>
       <c r="I9" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="D10" s="20">
+        <f>(240000*3)*12</f>
+      </c>
+      <c r="E10" s="13">
+        <f>SUM(D10:D19)</f>
+      </c>
+      <c r="F10" s="12">
+        <f>D10</f>
+      </c>
+      <c r="G10" s="13">
+        <f>SUM(F10:F19)</f>
+      </c>
+      <c r="H10" s="12">
+        <f>F10</f>
+      </c>
+      <c r="I10" s="13">
+        <f>SUM(H10:H19)</f>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="1"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
-        <f>500000*3*12</f>
-      </c>
-      <c r="E10" s="13">
-        <f>D10+D11+D12+D13+D14</f>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
-      <c r="A11" s="1"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="12">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="1"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12">
-        <v>1800000</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="12">
+        <f>1000*3*12</f>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="12">
+        <v>36000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="12">
+        <v>36000</v>
+      </c>
+      <c r="I12" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="1"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="16">
-        <v>63000</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="12">
+        <v>1200000</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="12">
+        <f>D13</f>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="12">
+        <f>F13</f>
+      </c>
+      <c r="I13" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="1"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="12">
-        <f>700000/5</f>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
-      <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="11" t="s">
+      <c r="D14" s="12">
+        <f>D10*0.13</f>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="12">
+        <f>F10*0.13</f>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="12">
+        <f>H10*13%</f>
+      </c>
+      <c r="I14" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="1"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12">
-        <v>13440</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
-      <c r="A15" s="1"/>
-      <c r="B15" s="20" t="s">
+      <c r="D15" s="12">
+        <v>120000</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="12">
+        <f>D15</f>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="12">
+        <f>F15</f>
+      </c>
+      <c r="I15" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="1"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D16" s="12">
+        <v>240000</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="12">
+        <f>D16</f>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="12">
+        <f>F16</f>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="1"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D17" s="12">
+        <f>200000*3/5+6000000/5</f>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="12">
+        <f>D17+300000/5</f>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="12">
+        <f>F17</f>
+      </c>
+      <c r="I17" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="12">
+        <f>50000*12</f>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="12">
+        <f>D18</f>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="12">
+        <f>F18</f>
+      </c>
+      <c r="I18" s="15"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24"/>
+      <c r="F19" s="12">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="12">
+        <f>F19</f>
+      </c>
+      <c r="I19" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="1"/>
+      <c r="B20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="25">
         <f>D9-E10</f>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="20.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="E20" s="7"/>
+      <c r="F20" s="6">
+        <f>F9-G10</f>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="6">
+        <f>H9-I10</f>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6">
-        <f>D15-E16</f>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="C21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
+      <c r="A23" s="1"/>
+      <c r="B23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D20-E21</f>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6">
+        <f>F20+G21</f>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6">
+        <f>H20+I21</f>
+      </c>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="29">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -937,16 +1161,20 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:B14"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="G10:G14"/>
-    <mergeCell ref="I10:I14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="I10:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/de56/profit_plan.xlsx
+++ b/de56/profit_plan.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\あつき\mygit\xbp\de56\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709BFACC-987F-43C9-A72B-6F308E3314A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -109,13 +128,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,6 +142,13 @@
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -282,107 +307,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -393,10 +418,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -434,71 +459,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,7 +551,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -549,11 +574,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -562,13 +587,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -578,7 +603,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -587,7 +612,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -596,7 +621,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -604,10 +629,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -672,480 +697,505 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:G20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" style="28" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="29" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="29" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="30" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="30" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="30" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="13.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="4" t="s">
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6">
+      <c r="C3" s="17"/>
+      <c r="D3" s="14">
         <f>2000*4000+100*4*12</f>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6">
+        <v>8004800</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14">
         <f>2000*4000+100*4*12</f>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6">
+        <v>8004800</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14">
         <f>2000*4000+100*4*12</f>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
+        <v>8004800</v>
+      </c>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
         <f>D4+D5+D6+D7+D8</f>
-      </c>
-      <c r="F4" s="12">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
         <f>SUM(F4:F8)</f>
-      </c>
-      <c r="H4" s="12">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
         <f>SUM(H4:H8)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="12">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="11" t="s">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="19"/>
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="12">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="11" t="s">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="19"/>
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="12">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="11" t="s">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="20"/>
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="6">
+      <c r="C9" s="4"/>
+      <c r="D9" s="14">
         <f>D3-E4</f>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="6">
+        <v>8004800</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14">
         <f>F3-G4</f>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6">
+        <v>8004800</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14">
         <f>H3-I4</f>
-      </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
+        <v>8004800</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="9">
         <f>(240000*3)*12</f>
-      </c>
-      <c r="E10" s="13">
+        <v>8640000</v>
+      </c>
+      <c r="E10" s="21">
         <f>SUM(D10:D19)</f>
-      </c>
-      <c r="F10" s="12">
+        <v>13282200</v>
+      </c>
+      <c r="F10" s="5">
         <f>D10</f>
-      </c>
-      <c r="G10" s="13">
+        <v>8640000</v>
+      </c>
+      <c r="G10" s="21">
         <f>SUM(F10:F19)</f>
-      </c>
-      <c r="H10" s="12">
+        <v>13342200</v>
+      </c>
+      <c r="H10" s="5">
         <f>F10</f>
-      </c>
-      <c r="I10" s="13">
+        <v>8640000</v>
+      </c>
+      <c r="I10" s="21">
         <f>SUM(H10:H19)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="11" t="s">
+        <v>13342200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="24"/>
+      <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="12">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="11" t="s">
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22"/>
+    </row>
+    <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="24"/>
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="5">
         <f>1000*3*12</f>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="12">
         <v>36000</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="12">
+      <c r="E12" s="26"/>
+      <c r="F12" s="5">
         <v>36000</v>
       </c>
-      <c r="I12" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="11" t="s">
+      <c r="G12" s="22"/>
+      <c r="H12" s="5">
+        <v>36000</v>
+      </c>
+      <c r="I12" s="22"/>
+    </row>
+    <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="24"/>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="5">
         <v>1200000</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="12">
+      <c r="E13" s="26"/>
+      <c r="F13" s="5">
         <f>D13</f>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="12">
+        <v>1200000</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="5">
         <f>F13</f>
-      </c>
-      <c r="I13" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="11" t="s">
+        <v>1200000</v>
+      </c>
+      <c r="I13" s="22"/>
+    </row>
+    <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="24"/>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="5">
         <f>D10*0.13</f>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="12">
+        <v>1123200</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="5">
         <f>F10*0.13</f>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="12">
+        <v>1123200</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="5">
         <f>H10*13%</f>
-      </c>
-      <c r="I14" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="11" t="s">
+        <v>1123200</v>
+      </c>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="24"/>
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="5">
         <v>120000</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="12">
+      <c r="E15" s="26"/>
+      <c r="F15" s="5">
         <f>D15</f>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="12">
+        <v>120000</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="5">
         <f>F15</f>
-      </c>
-      <c r="I15" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="11" t="s">
+        <v>120000</v>
+      </c>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="24"/>
+      <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="5">
         <v>240000</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="12">
+      <c r="E16" s="26"/>
+      <c r="F16" s="5">
         <f>D16</f>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="12">
+        <v>240000</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="5">
         <f>F16</f>
-      </c>
-      <c r="I16" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="11" t="s">
+        <v>240000</v>
+      </c>
+      <c r="I16" s="22"/>
+    </row>
+    <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="24"/>
+      <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="5">
         <f>200000*3/5+6000000/5</f>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="12">
+        <v>1320000</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="5">
         <f>D17+300000/5</f>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="12">
+        <v>1380000</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="5">
         <f>F17</f>
-      </c>
-      <c r="I17" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="11" t="s">
+        <v>1380000</v>
+      </c>
+      <c r="I17" s="22"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="24"/>
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="5">
         <f>50000*12</f>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="12">
+        <v>600000</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="5">
         <f>D18</f>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="12">
+        <v>600000</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="5">
         <f>F18</f>
-      </c>
-      <c r="I18" s="15"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="11" t="s">
+        <v>600000</v>
+      </c>
+      <c r="I18" s="22"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="25"/>
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="12">
+      <c r="D19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="5">
         <f>F19</f>
-      </c>
-      <c r="I19" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="21" t="s">
+        <v>3000</v>
+      </c>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="28">
         <f>D9-E10</f>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6">
+        <v>-5277400</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14">
         <f>F9-G10</f>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="6">
+        <v>-5337400</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
         <f>H9-I10</f>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10" t="s">
+        <v>-5337400</v>
+      </c>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="12">
-        <v>0</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="27" t="s">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="20"/>
+      <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="12">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="12">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="21.75">
-      <c r="A23" s="1"/>
-      <c r="B23" s="11" t="s">
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="14">
         <f>D20-E21</f>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="6">
+        <v>-5277400</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14">
         <f>F20+G21</f>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6">
+        <v>-5337400</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="14">
         <f>H20+I21</f>
-      </c>
-      <c r="I23" s="7"/>
+        <v>-5337400</v>
+      </c>
+      <c r="I23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="I10:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1154,28 +1204,8 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="I10:I19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/de56/profit_plan.xlsx
+++ b/de56/profit_plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\あつき\mygit\xbp\de56\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709BFACC-987F-43C9-A72B-6F308E3314A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED604E-2A28-4E83-B4F7-73B4AE1F1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,59 +342,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +703,8 @@
   </sheetPr>
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -718,46 +718,46 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="14">
-        <f>2000*4000+100*4*12</f>
-        <v>8004800</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14">
-        <f>2000*4000+100*4*12</f>
-        <v>8004800</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14">
-        <f>2000*4000+100*4*12</f>
-        <v>8004800</v>
-      </c>
-      <c r="I3" s="15"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="18">
+        <f>2000*4000+500*1000+1000*100*12</f>
+        <v>9700000</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18">
+        <f>2000*4400+500*2000+1000*150*12</f>
+        <v>11600000</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="18">
+        <f>2000*4840+500*3000+1000*200*12</f>
+        <v>13580000</v>
+      </c>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -766,120 +766,120 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <f>D4+D5+D6+D7+D8</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="16">
         <f>SUM(F4:F8)</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="16">
         <f>SUM(H4:H8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="19"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="20"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="14">
+      <c r="D9" s="18">
         <f>D3-E4</f>
-        <v>8004800</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14">
+        <v>9700000</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18">
         <f>F3-G4</f>
-        <v>8004800</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14">
+        <v>11600000</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="18">
         <f>H3-I4</f>
-        <v>8004800</v>
-      </c>
-      <c r="I9" s="15"/>
+        <v>13580000</v>
+      </c>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -889,7 +889,7 @@
         <f>(240000*3)*12</f>
         <v>8640000</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <f>SUM(D10:D19)</f>
         <v>13282200</v>
       </c>
@@ -897,7 +897,7 @@
         <f>D10</f>
         <v>8640000</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="16">
         <f>SUM(F10:F19)</f>
         <v>13342200</v>
       </c>
@@ -905,31 +905,31 @@
         <f>F10</f>
         <v>8640000</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="16">
         <f>SUM(H10:H19)</f>
         <v>13342200</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="24"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="24"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
@@ -937,38 +937,38 @@
         <f>1000*3*12</f>
         <v>36000</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5">
         <v>36000</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="5">
         <v>36000</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>1200000</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="5">
         <f>D13</f>
         <v>1200000</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="5">
         <f>F13</f>
         <v>1200000</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="24"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
@@ -976,60 +976,60 @@
         <f>D10*0.13</f>
         <v>1123200</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="5">
         <f>F10*0.13</f>
         <v>1123200</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="5">
         <f>H10*13%</f>
         <v>1123200</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="24"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="5">
         <v>120000</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="5">
         <f>D15</f>
         <v>120000</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="5">
         <f>F15</f>
         <v>120000</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5">
         <v>240000</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="5">
         <f>D16</f>
         <v>240000</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="5">
         <f>F16</f>
         <v>240000</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1037,20 +1037,20 @@
         <f>200000*3/5+6000000/5</f>
         <v>1320000</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="5">
         <f>D17+300000/5</f>
         <v>1380000</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="5">
         <f>F17</f>
         <v>1380000</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1058,36 +1058,36 @@
         <f>50000*12</f>
         <v>600000</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="5">
         <f>D18</f>
         <v>600000</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="5">
         <f>F18</f>
         <v>600000</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="25"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="5">
         <v>3000</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="5">
         <v>3000</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f>F19</f>
         <v>3000</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="10" t="s">
@@ -1096,24 +1096,24 @@
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="24">
         <f>D9-E10</f>
-        <v>-5277400</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14">
+        <v>-3582200</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18">
         <f>F9-G10</f>
-        <v>-5337400</v>
-      </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14">
+        <v>-1742200</v>
+      </c>
+      <c r="G20" s="19"/>
+      <c r="H20" s="18">
         <f>H9-I10</f>
-        <v>-5337400</v>
-      </c>
-      <c r="I20" s="15"/>
+        <v>237800</v>
+      </c>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1122,33 +1122,33 @@
       <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="20"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
@@ -1157,45 +1157,24 @@
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="18">
         <f>D20-E21</f>
-        <v>-5277400</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14">
+        <v>-3582200</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18">
         <f>F20+G21</f>
-        <v>-5337400</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14">
+        <v>-1742200</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="18">
         <f>H20+I21</f>
-        <v>-5337400</v>
-      </c>
-      <c r="I23" s="15"/>
+        <v>237800</v>
+      </c>
+      <c r="I23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="I10:I19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1204,6 +1183,27 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="I10:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/de56/profit_plan.xlsx
+++ b/de56/profit_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\あつき\mygit\xbp\de56\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DED604E-2A28-4E83-B4F7-73B4AE1F1D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19012DF2-7D6F-4631-9013-AA5E6A0B9372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11025" yWindow="4725" windowWidth="10155" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,59 +342,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +703,8 @@
   </sheetPr>
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -718,46 +718,46 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="18">
+      <c r="C3" s="17"/>
+      <c r="D3" s="14">
         <f>2000*4000+500*1000+1000*100*12</f>
         <v>9700000</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18">
+      <c r="E3" s="15"/>
+      <c r="F3" s="14">
         <f>2000*4400+500*2000+1000*150*12</f>
         <v>11600000</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="18">
+      <c r="G3" s="15"/>
+      <c r="H3" s="14">
         <f>2000*4840+500*3000+1000*200*12</f>
         <v>13580000</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -766,120 +766,120 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="21">
         <f>D4+D5+D6+D7+D8</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="21">
         <f>SUM(F4:F8)</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="21">
         <f>SUM(H4:H8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="25"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="23"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="25"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="23"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="25"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="13"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="18">
+      <c r="D9" s="14">
         <f>D3-E4</f>
         <v>9700000</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18">
+      <c r="E9" s="15"/>
+      <c r="F9" s="14">
         <f>F3-G4</f>
         <v>11600000</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="18">
+      <c r="G9" s="15"/>
+      <c r="H9" s="14">
         <f>H3-I4</f>
         <v>13580000</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -889,15 +889,15 @@
         <f>(240000*3)*12</f>
         <v>8640000</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="21">
         <f>SUM(D10:D19)</f>
-        <v>13282200</v>
+        <v>13281840</v>
       </c>
       <c r="F10" s="5">
         <f>D10</f>
         <v>8640000</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="21">
         <f>SUM(F10:F19)</f>
         <v>13342200</v>
       </c>
@@ -905,31 +905,31 @@
         <f>F10</f>
         <v>8640000</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="21">
         <f>SUM(H10:H19)</f>
         <v>13342200</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="20"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
@@ -937,38 +937,38 @@
         <f>1000*3*12</f>
         <v>36000</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="5">
         <v>36000</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="5">
         <v>36000</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="20"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>1200000</v>
       </c>
-      <c r="E13" s="15"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="5">
         <f>D13</f>
         <v>1200000</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="5">
         <f>F13</f>
         <v>1200000</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="20"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
@@ -976,60 +976,60 @@
         <f>D10*0.13</f>
         <v>1123200</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="5">
         <f>F10*0.13</f>
         <v>1123200</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="5">
         <f>H10*13%</f>
         <v>1123200</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="20"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="5">
         <v>120000</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="5">
         <f>D15</f>
         <v>120000</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="5">
         <f>F15</f>
         <v>120000</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="20"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5">
         <v>240000</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="5">
         <f>D16</f>
         <v>240000</v>
       </c>
-      <c r="G16" s="23"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="5">
         <f>F16</f>
         <v>240000</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="20"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1037,20 +1037,20 @@
         <f>200000*3/5+6000000/5</f>
         <v>1320000</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="5">
         <f>D17+300000/5</f>
         <v>1380000</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="5">
         <f>F17</f>
         <v>1380000</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="20"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1058,36 +1058,37 @@
         <f>50000*12</f>
         <v>600000</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="5">
         <f>D18</f>
         <v>600000</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="5">
         <f>F18</f>
         <v>600000</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="21"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="5">
-        <v>3000</v>
-      </c>
-      <c r="E19" s="22"/>
+        <f>220*12</f>
+        <v>2640</v>
+      </c>
+      <c r="E19" s="27"/>
       <c r="F19" s="5">
         <v>3000</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="5">
         <f>F19</f>
         <v>3000</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="10" t="s">
@@ -1096,24 +1097,24 @@
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="28">
         <f>D9-E10</f>
-        <v>-3582200</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18">
+        <v>-3581840</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14">
         <f>F9-G10</f>
         <v>-1742200</v>
       </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="18">
+      <c r="G20" s="15"/>
+      <c r="H20" s="14">
         <f>H9-I10</f>
         <v>237800</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="15"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1122,33 +1123,33 @@
       <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="29"/>
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="16"/>
+      <c r="G21" s="21"/>
       <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="13"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
@@ -1157,24 +1158,45 @@
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="14">
         <f>D20-E21</f>
-        <v>-3582200</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18">
+        <v>-3581840</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14">
         <f>F20+G21</f>
         <v>-1742200</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18">
+      <c r="G23" s="15"/>
+      <c r="H23" s="14">
         <f>H20+I21</f>
         <v>237800</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="I10:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1183,27 +1205,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="I10:I19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/de56/profit_plan.xlsx
+++ b/de56/profit_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\あつき\mygit\xbp\de56\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19012DF2-7D6F-4631-9013-AA5E6A0B9372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750E0B8A-C64F-404E-981A-7B5F631393FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11025" yWindow="4725" windowWidth="10155" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,59 +342,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +703,8 @@
   </sheetPr>
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -718,46 +718,46 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="14">
-        <f>2000*4000+500*1000+1000*100*12</f>
-        <v>9700000</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="14">
+      <c r="C3" s="29"/>
+      <c r="D3" s="18">
+        <f>2000*4000+1000*2000+500*600+3000*100+6500*30+200000+20000*12</f>
+        <v>11235000</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="18">
         <f>2000*4400+500*2000+1000*150*12</f>
         <v>11600000</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="14">
+      <c r="G3" s="19"/>
+      <c r="H3" s="18">
         <f>2000*4840+500*3000+1000*200*12</f>
         <v>13580000</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -766,120 +766,120 @@
       <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="16">
         <f>D4+D5+D6+D7+D8</f>
         <v>0</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="16">
         <f>SUM(F4:F8)</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="16">
         <f>SUM(H4:H8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="3">
         <v>0</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="19"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="22"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="20"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="14">
+      <c r="D9" s="18">
         <f>D3-E4</f>
-        <v>9700000</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14">
+        <v>11235000</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18">
         <f>F3-G4</f>
         <v>11600000</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="14">
+      <c r="G9" s="19"/>
+      <c r="H9" s="18">
         <f>H3-I4</f>
         <v>13580000</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -889,7 +889,7 @@
         <f>(240000*3)*12</f>
         <v>8640000</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <f>SUM(D10:D19)</f>
         <v>13281840</v>
       </c>
@@ -897,7 +897,7 @@
         <f>D10</f>
         <v>8640000</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="16">
         <f>SUM(F10:F19)</f>
         <v>13342200</v>
       </c>
@@ -905,31 +905,31 @@
         <f>F10</f>
         <v>8640000</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="16">
         <f>SUM(H10:H19)</f>
         <v>13342200</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="24"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="22"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="5">
         <v>0</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="24"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
@@ -937,38 +937,38 @@
         <f>1000*3*12</f>
         <v>36000</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="5">
         <v>36000</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="5">
         <v>36000</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="24"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="5">
         <v>1200000</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="5">
         <f>D13</f>
         <v>1200000</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="5">
         <f>F13</f>
         <v>1200000</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="24"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
@@ -976,60 +976,60 @@
         <f>D10*0.13</f>
         <v>1123200</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="5">
         <f>F10*0.13</f>
         <v>1123200</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="5">
         <f>H10*13%</f>
         <v>1123200</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="24"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="5">
         <v>120000</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="5">
         <f>D15</f>
         <v>120000</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="5">
         <f>F15</f>
         <v>120000</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="24"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="5">
         <v>240000</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="5">
         <f>D16</f>
         <v>240000</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="5">
         <f>F16</f>
         <v>240000</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="24"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1037,20 +1037,20 @@
         <f>200000*3/5+6000000/5</f>
         <v>1320000</v>
       </c>
-      <c r="E17" s="26"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="5">
         <f>D17+300000/5</f>
         <v>1380000</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="5">
         <f>F17</f>
         <v>1380000</v>
       </c>
-      <c r="I17" s="22"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="24"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1058,20 +1058,20 @@
         <f>50000*12</f>
         <v>600000</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="5">
         <f>D18</f>
         <v>600000</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="5">
         <f>F18</f>
         <v>600000</v>
       </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="25"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
@@ -1079,16 +1079,16 @@
         <f>220*12</f>
         <v>2640</v>
       </c>
-      <c r="E19" s="27"/>
+      <c r="E19" s="22"/>
       <c r="F19" s="5">
         <v>3000</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="5">
         <f>F19</f>
         <v>3000</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="10" t="s">
@@ -1097,24 +1097,24 @@
       <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="28">
+      <c r="D20" s="24">
         <f>D9-E10</f>
-        <v>-3581840</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14">
+        <v>-2046840</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18">
         <f>F9-G10</f>
         <v>-1742200</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="14">
+      <c r="G20" s="19"/>
+      <c r="H20" s="18">
         <f>H9-I10</f>
         <v>237800</v>
       </c>
-      <c r="I20" s="15"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -1123,33 +1123,33 @@
       <c r="D21" s="5">
         <v>0</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="14"/>
       <c r="F21" s="5">
         <v>0</v>
       </c>
-      <c r="G21" s="21"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="5">
         <v>0</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="20"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="5">
         <v>0</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="5">
         <v>0</v>
       </c>
-      <c r="G22" s="23"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="5">
         <v>0</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
@@ -1158,45 +1158,24 @@
       <c r="C23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="18">
         <f>D20-E21</f>
-        <v>-3581840</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14">
+        <v>-2046840</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18">
         <f>F20+G21</f>
         <v>-1742200</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="14">
+      <c r="G23" s="19"/>
+      <c r="H23" s="18">
         <f>H20+I21</f>
         <v>237800</v>
       </c>
-      <c r="I23" s="15"/>
+      <c r="I23" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="G10:G19"/>
-    <mergeCell ref="I10:I19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1205,6 +1184,27 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="G10:G19"/>
+    <mergeCell ref="I10:I19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
